--- a/GuildActivity.xlsx
+++ b/GuildActivity.xlsx
@@ -14,18 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Activity</t>
+    <t>Messages Sent</t>
+  </si>
+  <si>
+    <t>Words used</t>
   </si>
   <si>
     <t>2023-05-31</t>
   </si>
   <si>
-    <t>41</t>
+    <t>42</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
 </sst>
 </file>
@@ -357,26 +372,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/GuildActivity.xlsx
+++ b/GuildActivity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -25,6 +25,12 @@
     <t>Words used</t>
   </si>
   <si>
+    <t>Images Posted</t>
+  </si>
+  <si>
+    <t>NSFW Images</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>2023-06-03</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>45</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -372,40 +384,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GuildActivity.xlsx
+++ b/GuildActivity.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -31,28 +31,130 @@
     <t>NSFW Images</t>
   </si>
   <si>
+    <t>2023-07-14</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2023-07-12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023-07-11</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2023-07-09</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2023-07-02</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2023-06-27</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2023-06-25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2023-06-15</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>2023-06-14</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>2023-06-03</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
     <t>2023-05-31</t>
   </si>
   <si>
     <t>42</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>12</t>
   </si>
 </sst>
 </file>
@@ -384,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,27 +520,231 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
